--- a/2024/summary_results_assembly.xlsx
+++ b/2024/summary_results_assembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/mirko_martini_studio_unibo_it/Documents/GitHub/Lab_CompGeno/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{69EF635B-B91B-45B3-9AC2-FAC1281C1557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF42417-C9C7-49F2-8190-A3B31DDC9C03}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{69EF635B-B91B-45B3-9AC2-FAC1281C1557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9181E4F1-ED1F-496F-B752-370F9FB9661C}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{A7C38C14-3E1F-4D07-980E-00DE15544BA0}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{A7C38C14-3E1F-4D07-980E-00DE15544BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly_stats" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Assembly</t>
   </si>
@@ -190,13 +190,46 @@
   </si>
   <si>
     <t>Anno2</t>
+  </si>
+  <si>
+    <t>Anno1</t>
+  </si>
+  <si>
+    <t>Anno3</t>
+  </si>
+  <si>
+    <t>Anno2A</t>
+  </si>
+  <si>
+    <t>Anno3A</t>
+  </si>
+  <si>
+    <t>anno2A</t>
+  </si>
+  <si>
+    <t>anno3A</t>
+  </si>
+  <si>
+    <t>This table reports the annotation stats for out two rounds of annotation using the AGAT script 'agat_sp_statistics.pl'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This table reports the summary statics of our assembly at each stage of its computation. </t>
+  </si>
+  <si>
+    <t>This table reports the complete genes inferred with BUSCO at each step of genome assembly</t>
+  </si>
+  <si>
+    <t>nucleotide</t>
+  </si>
+  <si>
+    <t>amino acid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +270,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -254,11 +310,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,15 +361,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F5F111-BE9E-4DC7-9DC1-6994FE0503B6}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,88 +744,70 @@
     <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>224076198</v>
-      </c>
-      <c r="C2">
-        <v>850</v>
-      </c>
-      <c r="D2">
-        <v>263619.06</v>
-      </c>
-      <c r="E2">
-        <v>32930212</v>
-      </c>
-      <c r="F2">
-        <v>20386854</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>224228821</v>
+        <v>224076198</v>
       </c>
       <c r="C3">
         <v>850</v>
       </c>
       <c r="D3">
-        <v>263798.61</v>
+        <v>263619.06</v>
       </c>
       <c r="E3">
-        <v>32952373</v>
+        <v>32930212</v>
       </c>
       <c r="F3">
-        <v>20402434</v>
+        <v>20386854</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -725,36 +819,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>96.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>217230069</v>
+        <v>224228821</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>850</v>
       </c>
       <c r="D4">
-        <v>54317517.25</v>
+        <v>263798.61</v>
       </c>
       <c r="E4">
-        <v>92080463</v>
+        <v>32952373</v>
       </c>
       <c r="F4">
-        <v>87975319</v>
+        <v>20402434</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>92400</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>96.5</v>
@@ -762,16 +856,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>202169660</v>
+        <v>217230069</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>67389886.670000002</v>
+        <v>54317517.25</v>
       </c>
       <c r="E5">
         <v>92080463</v>
@@ -783,121 +877,204 @@
         <v>2</v>
       </c>
       <c r="H5">
+        <v>92400</v>
+      </c>
+      <c r="I5">
+        <v>924</v>
+      </c>
+      <c r="J5">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>202169660</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>67389886.670000002</v>
+      </c>
+      <c r="E6">
+        <v>92080463</v>
+      </c>
+      <c r="F6">
+        <v>87975319</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>8200</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>82</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>96.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>243500000</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>88700000</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>95.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410BB8AD-E9A3-49BA-90CA-C7C332ECB46D}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B3">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B4">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>96.5</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>96.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>89.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="8">
         <v>74.7</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="8">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="8">
+        <v>89.1</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -938,242 +1115,597 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67615BA1-00F9-4B28-AA3A-B682985CCC0D}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>152015</v>
+      </c>
+      <c r="C3">
         <v>163344</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" s="8">
+        <v>181850</v>
+      </c>
+      <c r="F3" s="8">
+        <v>163344</v>
+      </c>
+      <c r="G3" s="8">
+        <v>163344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>213157</v>
+      </c>
+      <c r="C4">
         <v>95401</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" s="8">
+        <v>95401</v>
+      </c>
+      <c r="F4" s="8">
+        <v>213157</v>
+      </c>
+      <c r="G4" s="8">
+        <v>95401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>807902</v>
+      </c>
+      <c r="C5">
         <v>355286</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" s="8">
+        <v>337470</v>
+      </c>
+      <c r="F5" s="8">
+        <v>863959</v>
+      </c>
+      <c r="G5" s="8">
+        <v>355286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B6">
+        <v>1173074</v>
+      </c>
+      <c r="C6">
         <v>614031</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" s="8">
+        <v>614721</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1240460</v>
+      </c>
+      <c r="G6" s="8">
+        <v>614031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="B8">
+        <v>152015</v>
+      </c>
+      <c r="C8">
         <v>163344</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" s="8">
+        <v>181850</v>
+      </c>
+      <c r="F8" s="8">
+        <v>163344</v>
+      </c>
+      <c r="G8" s="8">
+        <v>163344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
+      <c r="B9">
+        <v>213157</v>
+      </c>
+      <c r="C9">
         <v>95401</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" s="8">
+        <v>95401</v>
+      </c>
+      <c r="F9" s="8">
+        <v>213157</v>
+      </c>
+      <c r="G9" s="8">
+        <v>95401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
+      <c r="B10">
+        <v>5.3</v>
+      </c>
+      <c r="C10">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D10" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>29</v>
-      </c>
-      <c r="B10">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
       </c>
       <c r="B11">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3.7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>7.7</v>
+      </c>
+      <c r="C12">
+        <v>3.8</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="B13">
+        <v>5.5</v>
+      </c>
+      <c r="C13">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D13" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="G13" s="8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B14">
+        <v>25232129</v>
+      </c>
+      <c r="C14">
         <v>157981214</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D14" s="8">
+        <v>95449063</v>
+      </c>
+      <c r="F14" s="8">
+        <v>157981214</v>
+      </c>
+      <c r="G14" s="8">
+        <v>157981214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B15">
+        <v>940610510</v>
+      </c>
+      <c r="C15">
         <v>356414863</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D15" s="8">
+        <v>356414863</v>
+      </c>
+      <c r="F15" s="8">
+        <v>940610510</v>
+      </c>
+      <c r="G15" s="8">
+        <v>356414863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
+      <c r="B16">
+        <v>457957710</v>
+      </c>
+      <c r="C16">
         <v>327344790</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D16" s="8">
+        <v>256281626</v>
+      </c>
+      <c r="F16" s="8">
+        <v>564436719</v>
+      </c>
+      <c r="G16" s="8">
+        <v>327344790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
+      <c r="B17">
+        <v>506427132</v>
+      </c>
+      <c r="C17">
         <v>187051287</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D17" s="8">
+        <v>195582300</v>
+      </c>
+      <c r="F17" s="8">
+        <v>532697208</v>
+      </c>
+      <c r="G17" s="8">
+        <v>187051287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
+      <c r="B18">
+        <v>165</v>
+      </c>
+      <c r="C18">
         <v>967</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D18" s="8">
+        <v>524</v>
+      </c>
+      <c r="F18" s="8">
+        <v>967</v>
+      </c>
+      <c r="G18" s="8">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
+      <c r="B19">
+        <v>4412</v>
+      </c>
+      <c r="C19">
         <v>3735</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D19" s="8">
+        <v>3735</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4412</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
+      <c r="B20">
+        <v>566</v>
+      </c>
+      <c r="C20">
         <v>921</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D20" s="8">
+        <v>759</v>
+      </c>
+      <c r="F20" s="8">
+        <v>653</v>
+      </c>
+      <c r="G20" s="8">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>304</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>304</v>
+      </c>
+      <c r="D21" s="8">
+        <v>318</v>
+      </c>
+      <c r="F21" s="8">
+        <v>429</v>
+      </c>
+      <c r="G21" s="8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="B22">
+        <v>31501</v>
+      </c>
+      <c r="C22">
         <v>12041758</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D22" s="8">
+        <v>115223</v>
+      </c>
+      <c r="F22" s="8">
+        <v>12041758</v>
+      </c>
+      <c r="G22" s="8">
+        <v>12041758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B22">
+      <c r="B23">
+        <v>69919</v>
+      </c>
+      <c r="C23">
         <v>55515</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D23" s="8">
+        <v>55515</v>
+      </c>
+      <c r="F23" s="8">
+        <v>69919</v>
+      </c>
+      <c r="G23" s="8">
+        <v>55515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B23">
+      <c r="B24">
+        <v>46352</v>
+      </c>
+      <c r="C24">
         <v>110905</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D24" s="8">
+        <v>46352</v>
+      </c>
+      <c r="F24" s="8">
+        <v>110905</v>
+      </c>
+      <c r="G24" s="8">
+        <v>110905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>31501</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>31501</v>
+      </c>
+      <c r="D25" s="8">
+        <v>31501</v>
+      </c>
+      <c r="F25" s="8">
+        <v>31501</v>
+      </c>
+      <c r="G25" s="8">
+        <v>31501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8">
+        <v>6</v>
+      </c>
+      <c r="G26" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B26">
+      <c r="B27">
+        <v>69</v>
+      </c>
+      <c r="C27">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D27" s="8">
+        <v>72</v>
+      </c>
+      <c r="F27" s="8">
+        <v>69</v>
+      </c>
+      <c r="G27" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
+      <c r="B28">
+        <v>-10482</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="D28" s="8">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8">
+        <v>-10482</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B28">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>3</v>
       </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3</v>
+      </c>
+      <c r="G29" s="8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1182,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730697DC-9387-485E-8E93-419526C5D769}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1195,215 +1727,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
